--- a/Mobit/Dökümanlar/Okul34 Geliştirmeleri.xlsx
+++ b/Mobit/Dökümanlar/Okul34 Geliştirmeleri.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mustafa.ertugrul\Source\Repos\NewRepo\dökümanlar\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>Yapılacaklar</t>
   </si>
@@ -454,7 +449,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -465,7 +460,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,12 +522,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -573,11 +571,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -600,11 +598,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -635,12 +633,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
